--- a/hw3-starterCode/result.xlsx
+++ b/hw3-starterCode/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Oversea\usc\CSCI420 Computer Graphics\RayTracing\hw3-starterCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D9EE9F-97DC-4F4F-AFCF-03964B1CBA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1042CF-533A-4B7E-98C4-1D6D16FC5F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="10540" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>triangle</t>
   </si>
@@ -67,6 +67,78 @@
   <si>
     <t>siggraphASR</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost time: 791.793000 s</t>
+  </si>
+  <si>
+    <t>Total triangle intersection 14359979523</t>
+  </si>
+  <si>
+    <t>Total sphere intersection 0</t>
+  </si>
+  <si>
+    <t>Total AABB intersection 12169606488</t>
+  </si>
+  <si>
+    <t>mytest2m BVH</t>
+  </si>
+  <si>
+    <t>Cost time: 13.064000 s</t>
+  </si>
+  <si>
+    <t>Total triangle intersection 89569896</t>
+  </si>
+  <si>
+    <t>Total sphere intersection 89015669</t>
+  </si>
+  <si>
+    <t>Total AABB intersection 444673924</t>
+  </si>
+  <si>
+    <t>Mytest2m w\o BVH</t>
+  </si>
+  <si>
+    <t>Cost time: 32.041000 s</t>
+  </si>
+  <si>
+    <t>Total sphere intersection 9743321117</t>
+  </si>
+  <si>
+    <t>Siggraphm BVH</t>
+  </si>
+  <si>
+    <t>Cost time: 50.376000 s</t>
+  </si>
+  <si>
+    <t>Total triangle intersection 620211576</t>
+  </si>
+  <si>
+    <t>Total AABB intersection 2381520080</t>
+  </si>
+  <si>
+    <t>Siggraphm w\o BVH</t>
+  </si>
+  <si>
+    <t>Cost time: 1139.857000 s</t>
+  </si>
+  <si>
+    <t>Total triangle intersection 185261338234</t>
+  </si>
+  <si>
+    <t>SIGGRAPHASR BVH</t>
+  </si>
+  <si>
+    <t>W\o threads Cost time: 97.344000 s</t>
+  </si>
+  <si>
+    <t>w   threads Cost time: 91.200000 s</t>
+  </si>
+  <si>
+    <t>Total triangle intersection 1389594361</t>
+  </si>
+  <si>
+    <t>Total AABB intersection 6278216252</t>
   </si>
 </sst>
 </file>
@@ -391,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:I11"/>
+  <dimension ref="A4:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -545,6 +617,146 @@
         <v>6</v>
       </c>
     </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
